--- a/data_sample.xlsx
+++ b/data_sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nhatminhnguyen/Desktop/TuHoc/automate_office_tasks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42AA2CC3-1E3F-1F48-8A47-3698E49CB199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD5926E-82C9-5545-B35B-D0AFC91198C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15940" xr2:uid="{1FCE015F-4CF1-9740-9EF1-F71004F63588}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>ten_hoc_sinh</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>C305</t>
+  </si>
+  <si>
+    <t>abc</t>
   </si>
 </sst>
 </file>
@@ -470,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFE0265B-E849-8840-A285-CF067829EC39}">
-  <dimension ref="D4:H7"/>
+  <dimension ref="D4:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:H5"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -482,7 +485,7 @@
     <col min="5" max="5" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D4" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,8 +501,11 @@
       <c r="H4" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="I4" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="5" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
@@ -515,8 +521,11 @@
       <c r="H5" s="2">
         <v>0.33333333333333331</v>
       </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
@@ -532,8 +541,11 @@
       <c r="H6" s="2">
         <v>0.39583333333333331</v>
       </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="7" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
@@ -548,6 +560,9 @@
       </c>
       <c r="H7" s="2">
         <v>0.41666666666666669</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
